--- a/assests/Book1.xlsx
+++ b/assests/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.holmes\Documents\GitHub\EV3Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.holmes\Documents\GitHub\EV3Python\assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC34489-59F0-45B9-9BB1-7098904F6120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A7215-5B75-4636-943F-5BA4D89B9B4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" activeTab="1" xr2:uid="{F4F4A6CF-9A0A-4E36-BB9E-E9C6A1A93F20}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t xml:space="preserve">Borg, Briana </t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>2 to power of 0 = 1</t>
+  </si>
+  <si>
+    <t>Ham = 0b0001</t>
+  </si>
+  <si>
+    <t>Cheese = 0b0010</t>
+  </si>
+  <si>
+    <t>Tomato = 0b0100</t>
+  </si>
+  <si>
+    <t>Bread = 0b1000</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C5072D-6590-4FE2-87C0-406E14B00D7D}">
-  <dimension ref="B2:P5"/>
+  <dimension ref="B2:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,6 +1318,46 @@
       <c r="O5" s="13"/>
       <c r="P5" s="14"/>
     </row>
+    <row r="7" spans="2:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
